--- a/biology/Botanique/Herreriaceae/Herreriaceae.xlsx
+++ b/biology/Botanique/Herreriaceae/Herreriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Herreriacées est une famille de plantes monocotylédones. Cette famille n'est pas acceptée par tous les botanistes. Elle ne comprend que 9 espèces réparties en 2 genres:
 Herreria,
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Herreria (en), donné en hommage à Gabriel Alonso de Herrera, agronome et écrivain espagnol qui vécu entre le XVe et le XVIe siècle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Herreria (en), donné en hommage à Gabriel Alonso de Herrera, agronome et écrivain espagnol qui vécu entre le XVe et le XVIe siècle.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981)[2].
-La classification phylogénétique APG (1998)[3] accepte cette famille et la situe dans l'ordre des Asparagales.
-Mais la classification phylogénétique APG II (2003)[4] incorpore cette famille à celle des Agavacées ou Asparagacées.
-En classification phylogénétique APG III (2009)[5] cette famille est invalide et ses genres sont incorporés dans la famille des Asparagaceae sous-famille des Agavoideae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981).
+La classification phylogénétique APG (1998) accepte cette famille et la situe dans l'ordre des Asparagales.
+Mais la classification phylogénétique APG II (2003) incorpore cette famille à celle des Agavacées ou Asparagacées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille des Asparagaceae sous-famille des Agavoideae.
 </t>
         </is>
       </c>
